--- a/カレンダー_結合テスト.xlsx
+++ b/カレンダー_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{094E0080-82F7-4BDD-A222-1EF8CE3103C4}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE11ED3-939C-47B1-9901-1095C6F1F7A6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="3550" yWindow="1260" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="カレンダー" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="235">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -4595,7 +4595,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4646,7 +4646,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4683,7 +4683,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -4699,7 +4699,7 @@
         <v>220</v>
       </c>
       <c r="G8" s="3">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>175</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4737,7 +4737,7 @@
         <v>224</v>
       </c>
       <c r="G10" s="3">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>175</v>
@@ -4758,8 +4758,12 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>231</v>
@@ -4770,8 +4774,12 @@
       <c r="F12" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4789,7 +4797,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>178</v>
@@ -4805,7 +4813,7 @@
         <v>227</v>
       </c>
       <c r="G14" s="3">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>175</v>
@@ -4825,7 +4833,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>178</v>
@@ -4841,7 +4849,7 @@
         <v>229</v>
       </c>
       <c r="G16" s="3">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>175</v>
